--- a/Model/QIBT_MODEL_LOG.xlsx
+++ b/Model/QIBT_MODEL_LOG.xlsx
@@ -22,23 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>This is a log of the QIBT model as run by C. Holgate. Changes to the model source code are contained within the github repo: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/chiaraholgate/PartB_Scripts/tree/master/Model</t>
-    </r>
+    <t>This is a log of the QIBT model as run by C. Holgate. Changes to the model source code are contained within the github repo: https://github.com/chiaraholgate/PartB_Scripts/tree/master/Model</t>
   </si>
   <si>
     <t>This spreadsheet is a summary of each experiment. For detailed changes to each model version, see the github repo.</t>
@@ -113,7 +97,8 @@
 In March 2019 two problems were found with these RAIN files. 
 (1) To convert the accumulated hourly rainfall data to 3-hourly rainfall totals, accumulated rainfall in timestep 1 was subtracted from accumulated rainfall at time2=timestep 1+3. The last day of month was taking the first timestep of the next month for all "time2" of that day, when it should have only been taking "time2" as the next day for the last period of the last day of the month. 
 (2) The NARCliM model used a rainfall bucket of 1000mm. A rainfall bucket is used to prevent loss of numerical precision in the accumulated rainfall totals over the course of a long model simulation (e.g. some simulations may be centuries long). This means that any time a cell's accumulated rainfall total exceeds 1000mm, the cell's value is reset to (value-1000), and then continues to accumulate in successive timesteps. Therefore when converting the hourly accumulated rainfall to 3-hourly rainfall totals in the above step, negative values of rainfall resulted (usually around -1000mm or so). At cells where a negative rainfall total was recorded, the QIBT model would not have back-tracked the rainfall of that day, as the total daily rainfall would have been below the simulation threshold of 2mm/day. 
-Both issues were fixed and the RAIN files re-processed on 14/3/19. Previous RAIN processed files have been moved to /srv/ccrc/data03/z3131380/PartB/NARCliM_postprocess/Erroneous_RAIN/ on the storm servers. The corresponding files on NCI, in /g/data/hh5/tmp/w28/jpe561/back_traj/wrfhrly, were deleted and replaced with the corrected files.</t>
+Both issues were fixed and the RAIN files re-processed on 14/3/19. Previous RAIN processed files have been moved to /srv/ccrc/data03/z3131380/PartB/NARCliM_postprocess/Erroneous_RAIN/ on the storm servers. The corresponding files on NCI, in /g/data/hh5/tmp/w28/jpe561/back_traj/wrfhrly, were deleted and replaced with the corrected files. 
+3 May 2019: Error found and model killed before finishing. Model was reading in wrfout variable “T”, which is perterbation potential temperature. Model expects actual temperature, so we need to convert to actual temperature after loading in the pertebation potential temperature (perterbation temp + 300, then convert from theta to T).</t>
   </si>
   <si>
     <t>/home/603/cxh603/PhD/PartB/Scripts/Model/exp03</t>
@@ -132,6 +117,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,6 +139,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -160,6 +147,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,11 +201,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,17 +240,17 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="105.790816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="50.7755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="102.321428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="49"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,13 +258,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -286,73 +292,74 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="0"/>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="245.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" customFormat="false" ht="306.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
         <v>43525</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://github.com/chiaraholgate/PartB_Scripts/tree/master/Model"/>
+    <hyperlink ref="A1" r:id="rId1" display="This is a log of the QIBT model as run by C. Holgate. Changes to the model source code are contained within the github repo: https://github.com/chiaraholgate/PartB_Scripts/tree/master/Model"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Model/QIBT_MODEL_LOG.xlsx
+++ b/Model/QIBT_MODEL_LOG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>This is a log of the QIBT model as run by C. Holgate. Changes to the model source code are contained within the github repo: https://github.com/chiaraholgate/PartB_Scripts/tree/master/Model</t>
   </si>
@@ -103,14 +103,67 @@
   <si>
     <t>/home/603/cxh603/PhD/PartB/Scripts/Model/exp03</t>
   </si>
+  <si>
+    <t>exp04</t>
+  </si>
+  <si>
+    <t>QIBT_exp04.f90</t>
+  </si>
+  <si>
+    <t>Fixed temperature issue and reran to completion.</t>
+  </si>
+  <si>
+    <t>/home/603/cxh603/PhD/PartB/Scripts/Model/exp04</t>
+  </si>
+  <si>
+    <t>exp05</t>
+  </si>
+  <si>
+    <t>Working with Svetlana to improve the run time of the model. Ongoing.</t>
+  </si>
+  <si>
+    <t>exp06</t>
+  </si>
+  <si>
+    <t>QIBT_exp06a.f90</t>
+  </si>
+  <si>
+    <t>The results of exp04 were still looking funny around the dateline. Instead of converting the longitude of the parcel if and when it became negative, I instead converted negative longitudes to positive at the beginning of the program, when we first read in the lon,lat data from the header file. Processed results compared to exp04. Where there was a clear issue around the dateline in exp04 results, there is not in exp06, so issue has been resolved. </t>
+  </si>
+  <si>
+    <t>/home/603/cxh603/PhD/PartB/Scripts/Model/exp06</t>
+  </si>
+  <si>
+    <t>exp07</t>
+  </si>
+  <si>
+    <t>QIBT_exp07.f90</t>
+  </si>
+  <si>
+    <t>I noticed that the parcel_release_height subroutine had a section commented out. This was the section that weighted the release height to the precipitable water, so the model was previously releasing parcels from a purely random model level. I expect this change will mean more parcels get released from closer to the ground. Running a test to check. </t>
+  </si>
+  <si>
+    <t>/home/603/cxh603/PhD/PartB/Scripts/Model/exp07</t>
+  </si>
+  <si>
+    <t>exp08</t>
+  </si>
+  <si>
+    <t>QIBT_exp08.f90</t>
+  </si>
+  <si>
+    <t>I also noticed that new_parcel_level_w was giving strange output, saying parcel pressure was -infinity, and so setting the parcel level to the top of the model/atm. It turns out that while I had correctly allocated the act_temp array in the Check_read_input_data.f90 program, I hadn't copied over that line into QIBT_exp04.f90. Surprising fortran allowed the program to run at all! So all the act_temp values the back-traj routine saw were zero. In the new_parcel_level_w routine, division by temp is division by zero, so parcel pressure is seen as infinity. Don't know why fortran does this, instead of throwing a “float division by zero” error (like Python for example). 
+When I don't allocated the act_temp array, the program runs, and sees those values as zero. When I do the same thing but add in a print statement (after the call to the act_temp conversion routine in the program) to check act_temp cell values, the program throws a segfault error. Did it work before because act_temp was in the omp “SHARED” list of params? Weird.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -192,7 +245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,6 +271,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,19 +295,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="102.321428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="49"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="98.8163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,6 +412,82 @@
       </c>
       <c r="E8" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <v>43650</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="135.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <v>43651</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
